--- a/Sales_Data_Analysis.xlsx
+++ b/Sales_Data_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikki\OneDrive\Desktop\Capstone Project\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{384F0ED5-FF81-4199-935F-FBA7B700BE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8035F2E1-EE90-4D00-B54A-53F6553AB8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Data" sheetId="2" r:id="rId1"/>
@@ -11674,8 +11674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D23742A-059B-45F8-9794-CED9D98CEA01}">
   <dimension ref="A1:U84"/>
   <sheetViews>
-    <sheetView topLeftCell="L65" workbookViewId="0">
-      <selection activeCell="M88" sqref="M88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23430,7 +23430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB511B1-EAA7-40F2-8B32-36EB5A702F5B}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
